--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Bdnf</t>
   </si>
   <si>
     <t>Ngfr</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7593275</v>
+        <v>0.9759805</v>
       </c>
       <c r="H2">
-        <v>7.518655</v>
+        <v>1.951961</v>
       </c>
       <c r="I2">
-        <v>0.978804739390664</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9685405051816526</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.2530545</v>
+        <v>0.337665</v>
       </c>
       <c r="N2">
-        <v>24.506109</v>
+        <v>0.67533</v>
       </c>
       <c r="O2">
-        <v>0.9608496608412348</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="P2">
-        <v>0.9424019822271915</v>
+        <v>0.0143657952272707</v>
       </c>
       <c r="Q2">
-        <v>46.06324474084875</v>
+        <v>0.3295544555325</v>
       </c>
       <c r="R2">
-        <v>184.252978963395</v>
+        <v>1.31821782213</v>
       </c>
       <c r="S2">
-        <v>0.9404842018733127</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="T2">
-        <v>0.9127544919505148</v>
+        <v>0.0143657952272707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7593275</v>
+        <v>0.9759805</v>
       </c>
       <c r="H3">
-        <v>7.518655</v>
+        <v>1.951961</v>
       </c>
       <c r="I3">
-        <v>0.978804739390664</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9685405051816526</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.241569</v>
+        <v>0.05783366666666667</v>
       </c>
       <c r="N3">
-        <v>0.7247070000000001</v>
+        <v>0.173501</v>
       </c>
       <c r="O3">
-        <v>0.0189431534577567</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="P3">
-        <v>0.0278691861418686</v>
+        <v>0.003690758351808291</v>
       </c>
       <c r="Q3">
-        <v>0.9081369848475002</v>
+        <v>0.05644453091016666</v>
       </c>
       <c r="R3">
-        <v>5.448821909085001</v>
+        <v>0.338667185461</v>
       </c>
       <c r="S3">
-        <v>0.0185416483834569</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="T3">
-        <v>0.02699243562484692</v>
+        <v>0.003690758351808291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,232 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7593275</v>
+        <v>0.9759805</v>
       </c>
       <c r="H4">
-        <v>7.518655</v>
+        <v>1.951961</v>
       </c>
       <c r="I4">
-        <v>0.978804739390664</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9685405051816526</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2576883333333334</v>
+        <v>23.0803745</v>
       </c>
       <c r="N4">
-        <v>0.7730650000000001</v>
+        <v>46.160749</v>
       </c>
       <c r="O4">
-        <v>0.02020718570100838</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="P4">
-        <v>0.02972883163094002</v>
+        <v>0.981943446420921</v>
       </c>
       <c r="Q4">
-        <v>0.9687348379291667</v>
+        <v>22.52599544469725</v>
       </c>
       <c r="R4">
-        <v>5.812409027575001</v>
+        <v>90.10398177878899</v>
       </c>
       <c r="S4">
-        <v>0.01977888913389426</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="T4">
-        <v>0.02879357760629093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.08140533333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.244216</v>
-      </c>
-      <c r="I5">
-        <v>0.02119526060933597</v>
-      </c>
-      <c r="J5">
-        <v>0.03145949481834749</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>12.2530545</v>
-      </c>
-      <c r="N5">
-        <v>24.506109</v>
-      </c>
-      <c r="O5">
-        <v>0.9608496608412348</v>
-      </c>
-      <c r="P5">
-        <v>0.9424019822271915</v>
-      </c>
-      <c r="Q5">
-        <v>0.9974639859240001</v>
-      </c>
-      <c r="R5">
-        <v>5.984783915544</v>
-      </c>
-      <c r="S5">
-        <v>0.02036545896792205</v>
-      </c>
-      <c r="T5">
-        <v>0.02964749027667674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.08140533333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.244216</v>
-      </c>
-      <c r="I6">
-        <v>0.02119526060933597</v>
-      </c>
-      <c r="J6">
-        <v>0.03145949481834749</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.241569</v>
-      </c>
-      <c r="N6">
-        <v>0.7247070000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.0189431534577567</v>
-      </c>
-      <c r="P6">
-        <v>0.0278691861418686</v>
-      </c>
-      <c r="Q6">
-        <v>0.019665004968</v>
-      </c>
-      <c r="R6">
-        <v>0.176985044712</v>
-      </c>
-      <c r="S6">
-        <v>0.000401505074299797</v>
-      </c>
-      <c r="T6">
-        <v>0.0008767505170216768</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.08140533333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.244216</v>
-      </c>
-      <c r="I7">
-        <v>0.02119526060933597</v>
-      </c>
-      <c r="J7">
-        <v>0.03145949481834749</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.2576883333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.7730650000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.02020718570100838</v>
-      </c>
-      <c r="P7">
-        <v>0.02972883163094002</v>
-      </c>
-      <c r="Q7">
-        <v>0.02097720467111111</v>
-      </c>
-      <c r="R7">
-        <v>0.18879484204</v>
-      </c>
-      <c r="S7">
-        <v>0.00042829656711412</v>
-      </c>
-      <c r="T7">
-        <v>0.0009352540246490824</v>
+        <v>0.981943446420921</v>
       </c>
     </row>
   </sheetData>
